--- a/Technology/Software/Accenture.xlsx
+++ b/Technology/Software/Accenture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F9C6A0-6E93-2842-9BC2-30B5A057E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A68C0-1B46-5342-B1AD-F4F58ED2AAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2376,13 +2376,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>330.32</v>
+    <v>322.88</v>
     <v>242.8</v>
-    <v>1.2434000000000001</v>
-    <v>0.78</v>
-    <v>2.8310000000000002E-3</v>
-    <v>0.47</v>
-    <v>1.701E-3</v>
+    <v>1.2410000000000001</v>
+    <v>2.4300000000000002</v>
+    <v>8.4530000000000004E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Accenture plc is a global professional services company engaged in providing a range of services in strategy and consulting, technology, operations and Accenture song. It serves clients in North America, Europe and Growth markets. It provides a range of services, including application services, artificial intelligence, automation, business process outsourcing, business strategy, change management, cloud, data and analytics, digital commerce, digital engineering and manufacturing, finance consulting, infrastructure, marketing, mergers and acquisitions, metaverse, operating models, security, supply chain management, technology consulting, technology innovation and zero-based transformation. It helps organizations to achieve transformational impact with solutions in C-Suite assessment, team dynamics and various others. It also offers automated production lines that leverage the cloud, data and artificial intelligence (AI) that makes factories and plants smarter through Eclipse Automation.</v>
     <v>721000</v>
@@ -2390,25 +2390,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Grand Canal Square, Grand Canal Harbour, Dublin 2, DUBLIN, DUBLIN IE</v>
-    <v>277.83</v>
+    <v>291.35000000000002</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.986101967188</v>
+    <v>45065.937500022657</v>
     <v>0</v>
-    <v>275.39499999999998</v>
-    <v>174511300000</v>
+    <v>287.35000000000002</v>
+    <v>183087529093</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY</v>
-    <v>275.73</v>
-    <v>25.3627</v>
-    <v>275.55</v>
-    <v>276.33</v>
-    <v>276.8</v>
+    <v>288.60000000000002</v>
+    <v>26.460699999999999</v>
+    <v>287.48</v>
+    <v>289.91000000000003</v>
+    <v>289.91000000000003</v>
     <v>631532300</v>
     <v>ACN</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY (XNYS:ACN)</v>
-    <v>1600697</v>
-    <v>3027750</v>
+    <v>2213261</v>
+    <v>2227475</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2996,10 +2996,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomRight" activeCell="Y93" sqref="Y93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4402,15 +4402,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>2.8332375858449899</v>
+        <v>2.9724749567837483</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>25.375456092470607</v>
+        <v>26.622514161423108</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>19.778840413907488</v>
+        <v>20.750856934233436</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="AE95" s="55" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.2434000000000001</v>
+        <v>1.2410000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.4478370000000006E-2</v>
+        <v>9.4375050000000016E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>1.8701141791281115E-2</v>
+        <v>1.7840767080204656E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="AE101" s="49" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>174511300000</v>
+        <v>183087529093</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.98129885820871887</v>
+        <v>0.98215923291979534</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="AE103" s="38">
         <f>AE99+AE101</f>
-        <v>177837056000</v>
+        <v>186413285093</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11006,7 +11006,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>9.2913738503963117E-2</v>
+        <v>9.2884245083754313E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11140,7 +11140,7 @@
       <c r="AA107" s="39"/>
       <c r="AB107" s="42">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>177789852450.32483</v>
+        <v>177867096158.65079</v>
       </c>
       <c r="AC107" s="43" t="s">
         <v>148</v>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="AB108" s="42">
         <f>AB107+AB106</f>
-        <v>189569729082.49023</v>
+        <v>189646972790.81619</v>
       </c>
       <c r="AC108" s="43" t="s">
         <v>144</v>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="AE108" s="47">
         <f>AE105</f>
-        <v>9.2913738503963117E-2</v>
+        <v>9.2884245083754313E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11196,7 +11196,7 @@
       </c>
       <c r="Y110" s="49">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>154250408377.45148</v>
+        <v>154318528255.27582</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="Y113" s="49">
         <f>Y110+Y111-Y112</f>
-        <v>158818458377.45148</v>
+        <v>158886578255.27582</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="Y115" s="58">
         <f>Y113/Y114</f>
-        <v>253.90392593446362</v>
+        <v>254.01282955051983</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11250,7 +11250,7 @@
       </c>
       <c r="Y116" s="57" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price",TRUE)</f>
-        <v>276.33</v>
+        <v>289.91000000000003</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11259,7 +11259,7 @@
       </c>
       <c r="Y117" s="53">
         <f>Y115/Y116-1</f>
-        <v>-8.1156856170290448E-2</v>
+        <v>-0.12382177382456694</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Accenture.xlsx
+++ b/Technology/Software/Accenture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A68C0-1B46-5342-B1AD-F4F58ED2AAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30373CF8-420E-594C-AD40-DCAB1B0B7F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2378,11 +2378,11 @@
     <v>Powered by Refinitiv</v>
     <v>322.88</v>
     <v>242.8</v>
-    <v>1.2410000000000001</v>
-    <v>2.4300000000000002</v>
-    <v>8.4530000000000004E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.2378</v>
+    <v>11.84</v>
+    <v>4.0580999999999999E-2</v>
+    <v>0.11</v>
+    <v>3.6229999999999997E-4</v>
     <v>USD</v>
     <v>Accenture plc is a global professional services company engaged in providing a range of services in strategy and consulting, technology, operations and Accenture song. It serves clients in North America, Europe and Growth markets. It provides a range of services, including application services, artificial intelligence, automation, business process outsourcing, business strategy, change management, cloud, data and analytics, digital commerce, digital engineering and manufacturing, finance consulting, infrastructure, marketing, mergers and acquisitions, metaverse, operating models, security, supply chain management, technology consulting, technology innovation and zero-based transformation. It helps organizations to achieve transformational impact with solutions in C-Suite assessment, team dynamics and various others. It also offers automated production lines that leverage the cloud, data and artificial intelligence (AI) that makes factories and plants smarter through Eclipse Automation.</v>
     <v>721000</v>
@@ -2390,25 +2390,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Grand Canal Square, Grand Canal Harbour, Dublin 2, DUBLIN, DUBLIN IE</v>
-    <v>291.35000000000002</v>
+    <v>308.60000000000002</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.937500022657</v>
+    <v>45072.979844200781</v>
     <v>0</v>
-    <v>287.35000000000002</v>
-    <v>183087529093</v>
+    <v>293.64</v>
+    <v>191733206280</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY</v>
-    <v>288.60000000000002</v>
-    <v>26.460699999999999</v>
-    <v>287.48</v>
-    <v>289.91000000000003</v>
-    <v>289.91000000000003</v>
+    <v>294</v>
+    <v>26.854700000000001</v>
+    <v>291.76</v>
+    <v>303.60000000000002</v>
+    <v>303.70999999999998</v>
     <v>631532300</v>
     <v>ACN</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY (XNYS:ACN)</v>
-    <v>2213261</v>
-    <v>2227475</v>
+    <v>4578873</v>
+    <v>2244548</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2999,7 +2999,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="U82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y93" sqref="Y93"/>
+      <selection pane="bottomRight" activeCell="X102" sqref="X102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4402,15 +4402,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>2.9724749567837483</v>
+        <v>3.1128398360854952</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>26.622514161423108</v>
+        <v>27.879670585381863</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>20.750856934233436</v>
+        <v>21.730744593954231</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="AE95" s="55" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.2410000000000001</v>
+        <v>1.2378</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.4375050000000016E-2</v>
+        <v>9.4237290000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>1.7840767080204656E-2</v>
+        <v>1.7050003553417858E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="AE101" s="49" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>183087529093</v>
+        <v>191733206280</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.98215923291979534</v>
+        <v>0.9829499964465821</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="AE103" s="38">
         <f>AE99+AE101</f>
-        <v>186413285093</v>
+        <v>195058962280</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11006,7 +11006,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>9.2884245083754313E-2</v>
+        <v>9.2814911440816814E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11140,7 +11140,7 @@
       <c r="AA107" s="39"/>
       <c r="AB107" s="42">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>177867096158.65079</v>
+        <v>178048946631.84885</v>
       </c>
       <c r="AC107" s="43" t="s">
         <v>148</v>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="AB108" s="42">
         <f>AB107+AB106</f>
-        <v>189646972790.81619</v>
+        <v>189828823264.01425</v>
       </c>
       <c r="AC108" s="43" t="s">
         <v>144</v>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="AE108" s="47">
         <f>AE105</f>
-        <v>9.2884245083754313E-2</v>
+        <v>9.2814911440816814E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11196,7 +11196,7 @@
       </c>
       <c r="Y110" s="49">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>154318528255.27582</v>
+        <v>154478899478.70093</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="Y113" s="49">
         <f>Y110+Y111-Y112</f>
-        <v>158886578255.27582</v>
+        <v>159046949478.70093</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="Y115" s="58">
         <f>Y113/Y114</f>
-        <v>254.01282955051983</v>
+        <v>254.26921589031022</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11250,7 +11250,7 @@
       </c>
       <c r="Y116" s="57" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price",TRUE)</f>
-        <v>289.91000000000003</v>
+        <v>303.60000000000002</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11259,7 +11259,7 @@
       </c>
       <c r="Y117" s="53">
         <f>Y115/Y116-1</f>
-        <v>-0.12382177382456694</v>
+        <v>-0.16248611366827992</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Accenture.xlsx
+++ b/Technology/Software/Accenture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30373CF8-420E-594C-AD40-DCAB1B0B7F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516932B0-035B-7748-BB46-55FC73E3C7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2376,39 +2376,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>322.88</v>
+    <v>327.93</v>
     <v>242.8</v>
-    <v>1.2378</v>
-    <v>11.84</v>
-    <v>4.0580999999999999E-2</v>
-    <v>0.11</v>
-    <v>3.6229999999999997E-4</v>
+    <v>1.2258</v>
+    <v>-5.95</v>
+    <v>-1.8997E-2</v>
     <v>USD</v>
-    <v>Accenture plc is a global professional services company engaged in providing a range of services in strategy and consulting, technology, operations and Accenture song. It serves clients in North America, Europe and Growth markets. It provides a range of services, including application services, artificial intelligence, automation, business process outsourcing, business strategy, change management, cloud, data and analytics, digital commerce, digital engineering and manufacturing, finance consulting, infrastructure, marketing, mergers and acquisitions, metaverse, operating models, security, supply chain management, technology consulting, technology innovation and zero-based transformation. It helps organizations to achieve transformational impact with solutions in C-Suite assessment, team dynamics and various others. It also offers automated production lines that leverage the cloud, data and artificial intelligence (AI) that makes factories and plants smarter through Eclipse Automation.</v>
+    <v>Accenture plc is a global professional services company. The Company is engaged in providing a range of services and solutions across strategy and consulting, technology, operations, Industry X and Song. The Company serves clients in three geographic markets: North America, Europe, and Growth Markets (Asia Pacific, Latin America, Africa, and the Middle East). It provides a range of services, including application services, artificial intelligence, automation, business process outsourcing, business strategy, change management, cloud, customer experience, data and analytics, ecosystem partners, finance consulting, Industry X, infrastructure, marketing, operating models, security, supply chain management, technology consulting, technology innovation, and zero-based budgeting (ZBB). The Company also specializes in the SAP business technology platform that designs digital products and experiences for enterprise customers, including custom portals and Web solutions, and mobile applications.</v>
     <v>721000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Grand Canal Square, Grand Canal Harbour, Dublin 2, DUBLIN, DUBLIN IE</v>
-    <v>308.60000000000002</v>
+    <v>307.57</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.979844200781</v>
+    <v>45099.997785312502</v>
     <v>0</v>
-    <v>293.64</v>
-    <v>191733206280</v>
+    <v>296</v>
+    <v>194038299175</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY</v>
-    <v>294</v>
-    <v>26.854700000000001</v>
-    <v>291.76</v>
-    <v>303.60000000000002</v>
-    <v>303.70999999999998</v>
+    <v>298.20999999999998</v>
+    <v>27.371600000000001</v>
+    <v>313.2</v>
+    <v>307.25</v>
     <v>631532300</v>
     <v>ACN</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY (XNYS:ACN)</v>
-    <v>4578873</v>
-    <v>2244548</v>
+    <v>2486</v>
+    <v>3066777</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2440,8 +2437,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2462,7 +2457,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2479,7 +2473,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2490,16 +2484,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2565,19 +2556,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2622,9 +2607,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2632,9 +2614,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2996,10 +2975,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X102" sqref="X102"/>
+      <selection pane="bottomRight" activeCell="Z99" sqref="Z99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4402,15 +4381,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>3.1128398360854952</v>
+        <v>3.1502636351688684</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>27.879670585381863</v>
+        <v>28.214851078256185</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>21.730744593954231</v>
+        <v>21.992000251951378</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10208,7 +10187,7 @@
       </c>
       <c r="AE95" s="55" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.2378</v>
+        <v>1.2258</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10363,7 +10342,7 @@
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.4237290000000001E-2</v>
+        <v>9.3720690000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10594,7 +10573,7 @@
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>1.7050003553417858E-2</v>
+        <v>1.6850869815433708E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10672,7 +10651,7 @@
       </c>
       <c r="AE101" s="49" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>191733206280</v>
+        <v>194038299175</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10750,7 +10729,7 @@
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.9829499964465821</v>
+        <v>0.98314913018456629</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10828,7 +10807,7 @@
       </c>
       <c r="AE103" s="38">
         <f>AE99+AE101</f>
-        <v>195058962280</v>
+        <v>197364055175</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11006,7 +10985,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>9.2814911440816814E-2</v>
+        <v>9.2323629122174455E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11140,7 +11119,7 @@
       <c r="AA107" s="39"/>
       <c r="AB107" s="42">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>178048946631.84885</v>
+        <v>179348227441.18228</v>
       </c>
       <c r="AC107" s="43" t="s">
         <v>148</v>
@@ -11171,7 +11150,7 @@
       </c>
       <c r="AB108" s="42">
         <f>AB107+AB106</f>
-        <v>189828823264.01425</v>
+        <v>191128104073.34769</v>
       </c>
       <c r="AC108" s="43" t="s">
         <v>144</v>
@@ -11181,7 +11160,7 @@
       </c>
       <c r="AE108" s="47">
         <f>AE105</f>
-        <v>9.2814911440816814E-2</v>
+        <v>9.2323629122174455E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11196,7 +11175,7 @@
       </c>
       <c r="Y110" s="49">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>154478899478.70093</v>
+        <v>155624734752.42096</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11223,7 +11202,7 @@
       </c>
       <c r="Y113" s="49">
         <f>Y110+Y111-Y112</f>
-        <v>159046949478.70093</v>
+        <v>160192784752.42096</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11241,7 +11220,7 @@
       </c>
       <c r="Y115" s="58">
         <f>Y113/Y114</f>
-        <v>254.26921589031022</v>
+        <v>256.10106892202947</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11250,7 +11229,7 @@
       </c>
       <c r="Y116" s="57" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price",TRUE)</f>
-        <v>303.60000000000002</v>
+        <v>307.25</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11259,7 +11238,7 @@
       </c>
       <c r="Y117" s="53">
         <f>Y115/Y116-1</f>
-        <v>-0.16248611366827992</v>
+        <v>-0.16647333141731657</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Accenture.xlsx
+++ b/Technology/Software/Accenture.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516932B0-035B-7748-BB46-55FC73E3C7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1908241C-D70E-5743-8151-3922425F992F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +547,47 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,98 +917,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,8 +1057,9 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ACN</a:t>
+              <a:t>Accenture</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1115,10 +1096,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1094214876033058E-2"/>
-          <c:y val="0.1113766842413591"/>
-          <c:w val="0.85733553719008271"/>
-          <c:h val="0.74554133281670198"/>
+          <c:x val="9.8356073211314482E-2"/>
+          <c:y val="0.1603742844539307"/>
+          <c:w val="0.8563860232945093"/>
+          <c:h val="0.64422841936622588"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1172,6 +1153,81 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$W$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$W$3</c:f>
@@ -1249,7 +1305,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1723-A84B-9051-14A8D8011811}"/>
+              <c16:uniqueId val="{00000000-5F21-D249-B1BE-C09D03EC1BAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1258,11 +1314,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1300,84 +1356,159 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$W$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$W$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$W$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1974091000</c:v>
+                  <c:v>1057403000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1021327000</c:v>
+                  <c:v>244895000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1301542000</c:v>
+                  <c:v>498238000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1545495000</c:v>
+                  <c:v>690828000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1919644000</c:v>
+                  <c:v>940474000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1784474000</c:v>
+                  <c:v>973329000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2583508000</c:v>
+                  <c:v>1243148000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3093746000</c:v>
+                  <c:v>1691751000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2842265000</c:v>
+                  <c:v>1589963000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3123931000</c:v>
+                  <c:v>1780656000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3764715000</c:v>
+                  <c:v>2277677000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4241357000</c:v>
+                  <c:v>2553510000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4673716000</c:v>
+                  <c:v>3281878000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4701605000</c:v>
+                  <c:v>2941498000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4850823000</c:v>
+                  <c:v>3053581000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6111171000</c:v>
+                  <c:v>4111892000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5243583000</c:v>
+                  <c:v>3445149000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6599721000</c:v>
+                  <c:v>4059907000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7100391000</c:v>
+                  <c:v>4779112000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8503052000</c:v>
+                  <c:v>5107839000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8546139000</c:v>
+                  <c:v>5906809000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10003537000</c:v>
+                  <c:v>6877169000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1723-A84B-9051-14A8D8011811}"/>
+              <c16:uniqueId val="{00000001-5F21-D249-B1BE-C09D03EC1BAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1386,11 +1517,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1428,9 +1559,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$W$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$W$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$W$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1505,7 +1711,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1723-A84B-9051-14A8D8011811}"/>
+              <c16:uniqueId val="{00000002-5F21-D249-B1BE-C09D03EC1BAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1519,11 +1725,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1858647775"/>
-        <c:axId val="1858650047"/>
+        <c:axId val="996617423"/>
+        <c:axId val="996619151"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1858647775"/>
+        <c:axId val="996617423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,7 +1757,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1563,7 +1769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1858650047"/>
+        <c:crossAx val="996619151"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1571,7 +1777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1858650047"/>
+        <c:axId val="996619151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,7 +1825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1858647775"/>
+        <c:crossAx val="996617423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,10 +1843,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35508463590811473"/>
-          <c:y val="0.92618979745282282"/>
-          <c:w val="0.30305376456042166"/>
-          <c:h val="4.8033986964283244E-2"/>
+          <c:x val="0.34872116027093958"/>
+          <c:y val="0.90473138090805172"/>
+          <c:w val="0.31586872273245381"/>
+          <c:h val="6.0090894255158997E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2222,20 +2428,20 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>49212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:colOff>1539874</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE6C1D2-B42B-D017-910B-D7B78F3E56B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4B72AB-13AB-2C1A-EEE8-54CB7F6DC91A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,6 +2460,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2378,34 +2638,34 @@
     <v>Powered by Refinitiv</v>
     <v>327.93</v>
     <v>242.8</v>
-    <v>1.2258</v>
-    <v>-5.95</v>
-    <v>-1.8997E-2</v>
+    <v>1.2262999999999999</v>
+    <v>2.69</v>
+    <v>8.7980000000000003E-3</v>
     <v>USD</v>
-    <v>Accenture plc is a global professional services company. The Company is engaged in providing a range of services and solutions across strategy and consulting, technology, operations, Industry X and Song. The Company serves clients in three geographic markets: North America, Europe, and Growth Markets (Asia Pacific, Latin America, Africa, and the Middle East). It provides a range of services, including application services, artificial intelligence, automation, business process outsourcing, business strategy, change management, cloud, customer experience, data and analytics, ecosystem partners, finance consulting, Industry X, infrastructure, marketing, operating models, security, supply chain management, technology consulting, technology innovation, and zero-based budgeting (ZBB). The Company also specializes in the SAP business technology platform that designs digital products and experiences for enterprise customers, including custom portals and Web solutions, and mobile applications.</v>
+    <v>Accenture plc is a global professional services company. The Company is engaged in providing a range of services and solutions across strategy and consulting, technology, operations, Industry X and Accenture Song. The Company serves clients in three geographic markets: North America, Europe, and Growth Markets (Asia Pacific, Latin America, Africa, and the Middle East). It provides a range of services, including application services, artificial intelligence, automation, business process outsourcing, business strategy, change management, cloud, customer experience, data and analytics, ecosystem partners, finance consulting, Industry X, infrastructure, marketing, operating models, security, supply chain management, technology consulting, technology innovation, and zero-based budgeting (ZBB). It also specializes in the SAP business technology platform that designs digital products and experiences for enterprise customers, including custom portals and Web solutions and mobile applications.</v>
     <v>721000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Grand Canal Square, Grand Canal Harbour, Dublin 2, DUBLIN, DUBLIN IE</v>
-    <v>307.57</v>
+    <v>309.11</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.997785312502</v>
+    <v>45117.974386515627</v>
     <v>0</v>
-    <v>296</v>
-    <v>194038299175</v>
+    <v>304.12</v>
+    <v>204906943865</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY</v>
-    <v>298.20999999999998</v>
-    <v>27.371600000000001</v>
-    <v>313.2</v>
-    <v>307.25</v>
-    <v>631532300</v>
+    <v>305.20999999999998</v>
+    <v>27.4785</v>
+    <v>305.76</v>
+    <v>308.45</v>
+    <v>664311700</v>
     <v>ACN</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY (XNYS:ACN)</v>
-    <v>2486</v>
-    <v>3066777</v>
+    <v>9</v>
+    <v>2760577</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2558,10 +2818,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -2975,10 +3235,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z99" sqref="Z99"/>
+      <selection pane="bottomRight" activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3058,19 +3318,19 @@
       <c r="W1" s="8">
         <v>2022</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="23">
         <v>2023</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="23">
         <v>2024</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="23">
         <v>2025</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="23">
         <v>2026</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3079,79 +3339,79 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
@@ -3230,142 +3490,142 @@
       <c r="W3" s="1">
         <v>61594305000</v>
       </c>
-      <c r="X3" s="28">
-        <v>64342000000</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>68891000000</v>
-      </c>
-      <c r="Z3" s="28">
-        <v>73798000000</v>
-      </c>
-      <c r="AA3" s="28">
-        <v>77718000000</v>
-      </c>
-      <c r="AB3" s="28">
-        <v>82216000000</v>
+      <c r="X3" s="24">
+        <v>64176000000</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>67858000000</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>72660000000</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>78296000000</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>80858000000</v>
       </c>
       <c r="AC3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AE3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AF3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="67">
         <f>(C3/B3)-1</f>
         <v>3.3036612209949023E-3</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="67">
         <f>(D3/C3)-1</f>
         <v>2.229801334205872E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="67">
         <f>(E3/D3)-1</f>
         <v>0.12811161104824587</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="67">
         <f t="shared" ref="F4:AB4" si="0">(F3/E3)-1</f>
         <v>0.13106343684773081</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="67">
         <f t="shared" si="0"/>
         <v>6.6334277501079342E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="67">
         <f t="shared" si="0"/>
         <v>0.17688809847245768</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="67">
         <f t="shared" si="0"/>
         <v>0.1799806337155796</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="67">
         <f t="shared" si="0"/>
         <v>-8.4651684024374618E-2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="67">
         <f t="shared" si="0"/>
         <v>-3.3183766858596586E-3</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="67">
         <f t="shared" si="0"/>
         <v>0.18441247145696837</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="67">
         <f t="shared" si="0"/>
         <v>8.8658597764026181E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="67">
         <f t="shared" si="0"/>
         <v>2.0696497765043453E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="67">
         <f t="shared" si="0"/>
         <v>4.8706294620847412E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="67">
         <f t="shared" si="0"/>
         <v>3.2619811877001581E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="67">
         <f t="shared" si="0"/>
         <v>5.7216161522376963E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="67">
         <f t="shared" si="0"/>
         <v>5.6550266410147598E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="67">
         <f t="shared" si="0"/>
         <v>0.13158947641045216</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="67">
         <f t="shared" si="0"/>
         <v>3.8736831974518937E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="67">
         <f t="shared" si="0"/>
         <v>2.5732399987939303E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="67">
         <f t="shared" si="0"/>
         <v>0.14001273579315776</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="67">
         <f t="shared" si="0"/>
         <v>0.21888332088710705</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>4.4609562523678203E-2</v>
+        <v>4.1914508167597564E-2</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>7.0700320164122976E-2</v>
+        <v>5.7373472949389104E-2</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>7.1228462353573052E-2</v>
+        <v>7.0765421910460091E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>5.3117970676712201E-2</v>
+        <v>7.7566749243049848E-2</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>5.7875910342520376E-2</v>
+        <v>3.272197813425981E-2</v>
       </c>
       <c r="AC4" s="17">
         <f>(W4+V4+U4)/3</f>
@@ -3380,7 +3640,7 @@
         <v>0.12982756088689484</v>
       </c>
       <c r="AF4" s="17">
-        <f>(W105+V105+U105)/3</f>
+        <f>(W106+V106+U106)/3</f>
         <v>0.13891084907834084</v>
       </c>
     </row>
@@ -3526,16 +3786,16 @@
         <v>19701539000</v>
       </c>
       <c r="AC6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AE6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AF6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3621,7 +3881,7 @@
         <v>0.11169999999999999</v>
       </c>
       <c r="AF7" s="20">
-        <f>W106/W3</f>
+        <f>W107/W3</f>
         <v>0.14324588937240221</v>
       </c>
     </row>
@@ -3698,7 +3958,7 @@
     </row>
     <row r="9" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3789,16 +4049,16 @@
         <v>0</v>
       </c>
       <c r="AC9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AE9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3806,28 +4066,28 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1">
         <v>1340467000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1">
         <v>1788514000</v>
@@ -3893,28 +4153,28 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1">
         <v>1488333000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1">
         <v>2159462000</v>
@@ -4030,21 +4290,21 @@
         <v>10334358000</v>
       </c>
       <c r="AC12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AD12" s="19" t="s">
+      <c r="AE12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AE12" s="19" t="s">
+      <c r="AF12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AF12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4159,67 +4419,67 @@
         <v>967110000</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4293,16 +4553,16 @@
         <v>10334358000</v>
       </c>
       <c r="AC15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AE15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AE15" s="19" t="s">
+      <c r="AF15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AF15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4375,50 +4635,50 @@
       <c r="W16" s="1">
         <v>52227124000</v>
       </c>
-      <c r="AC16" s="29">
+      <c r="AC16" s="25">
         <f>(W35+V35+U35+T35+S35)/5</f>
         <v>-5.3926599951135499E-3</v>
       </c>
-      <c r="AD16" s="30">
+      <c r="AD16" s="55">
         <f>AE101/W3</f>
-        <v>3.1502636351688684</v>
-      </c>
-      <c r="AE16" s="30">
+        <v>3.3267189858705279</v>
+      </c>
+      <c r="AE16" s="55">
         <f>AE101/W28</f>
-        <v>28.214851078256185</v>
-      </c>
-      <c r="AF16" s="31">
-        <f>AE101/W106</f>
-        <v>21.992000251951378</v>
+        <v>29.795246251037309</v>
+      </c>
+      <c r="AF16" s="56">
+        <f>AE101/W107</f>
+        <v>23.223835604957017</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>22044000</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1">
         <v>14121000</v>
@@ -4463,7 +4723,7 @@
         <v>47320000</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4534,10 +4794,19 @@
         <v>871841000</v>
       </c>
       <c r="AC18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF18" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4607,14 +4876,41 @@
       <c r="W19" s="10">
         <v>10003537000</v>
       </c>
-      <c r="AC19" s="32">
+      <c r="X19" s="58">
+        <v>11513000000</v>
+      </c>
+      <c r="Y19" s="58">
+        <v>12393000000</v>
+      </c>
+      <c r="Z19" s="58">
+        <v>13784000000</v>
+      </c>
+      <c r="AA19" s="58">
+        <v>13515000000</v>
+      </c>
+      <c r="AB19" s="58">
+        <v>14371000000</v>
+      </c>
+      <c r="AC19" s="26">
         <f>W40-W56-W61</f>
         <v>4568050000</v>
       </c>
+      <c r="AD19" s="55">
+        <f>AE101/X3</f>
+        <v>3.1928905488812016</v>
+      </c>
+      <c r="AE19" s="55">
+        <f>AE101/X28</f>
+        <v>27.686386145791108</v>
+      </c>
+      <c r="AF19" s="56">
+        <f>AE101/X106</f>
+        <v>22.202507732690432</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4630,7 +4926,7 @@
         <v>0.18743382848959156</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:W20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AB20" si="3">(F19/E19)-1</f>
         <v>0.24209007470098576</v>
       </c>
       <c r="G20" s="15">
@@ -4701,8 +4997,28 @@
         <f t="shared" si="3"/>
         <v>0.17053291550722505</v>
       </c>
+      <c r="X20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.15089292917095221</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" si="3"/>
+        <v>7.6435333970294339E-2</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.11224078108609703</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.9515380150899597E-2</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="3"/>
+        <v>6.3337032926378045E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4772,8 +5088,34 @@
       <c r="W21" s="2">
         <v>0.16239999999999999</v>
       </c>
+      <c r="X21" s="59">
+        <f>X19/X3</f>
+        <v>0.17939728247319869</v>
+      </c>
+      <c r="Y21" s="59">
+        <f t="shared" ref="Y21:AB21" si="4">Y19/Y3</f>
+        <v>0.18263137728786583</v>
+      </c>
+      <c r="Z21" s="59">
+        <f t="shared" si="4"/>
+        <v>0.18970547756674924</v>
+      </c>
+      <c r="AA21" s="59">
+        <f t="shared" si="4"/>
+        <v>0.17261418207826709</v>
+      </c>
+      <c r="AB21" s="59">
+        <f t="shared" si="4"/>
+        <v>0.1777313314699844</v>
+      </c>
+      <c r="AE21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF21" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4843,8 +5185,16 @@
       <c r="W22" s="10">
         <v>9367181000</v>
       </c>
+      <c r="AE22" s="66">
+        <f>(-1*W98)/AE101</f>
+        <v>1.1992302230708983E-2</v>
+      </c>
+      <c r="AF22" s="57">
+        <f>W107/AE101</f>
+        <v>4.3059209383421351E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4915,7 +5265,7 @@
         <v>0.15210000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4986,7 +5336,7 @@
         <v>-171014000</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5057,7 +5407,7 @@
         <v>9196167000</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5128,7 +5478,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5199,7 +5549,7 @@
         <v>2207207000</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5269,10 +5619,25 @@
       <c r="W28" s="11">
         <v>6877169000</v>
       </c>
+      <c r="X28" s="60">
+        <v>7401000000</v>
+      </c>
+      <c r="Y28" s="60">
+        <v>7957000000</v>
+      </c>
+      <c r="Z28" s="60">
+        <v>8525000000</v>
+      </c>
+      <c r="AA28" s="60">
+        <v>9443000000</v>
+      </c>
+      <c r="AB28" s="60">
+        <v>9956000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5288,79 +5653,99 @@
         <v>0.38654217462337281</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:W29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AB29" si="5">(F28/E28)-1</f>
         <v>0.36137215052082428</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4934511746204544E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27721253553526104</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36086049287775879</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.0167246834788357E-2</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11993549535429437</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27912241331284648</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12110277269340641</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28524188274179463</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.10371500707826431</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8104054464765946E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34658029376001487</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.16214993000788935</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17844162908483785</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17714814649695176</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8784117216754925E-2</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15642035702378254</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16427820842014706</v>
       </c>
+      <c r="X29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.6169569193370146E-2</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.5124983110390398E-2</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.1383687319341416E-2</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.10768328445747799</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="5"/>
+        <v>5.4325955734406461E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5430,8 +5815,28 @@
       <c r="W30" s="2">
         <v>0.11169999999999999</v>
       </c>
+      <c r="X30" s="61">
+        <f>X28/X3</f>
+        <v>0.11532348541510845</v>
+      </c>
+      <c r="Y30" s="61">
+        <f t="shared" ref="Y30:AB30" si="6">Y28/Y3</f>
+        <v>0.11725957145804473</v>
+      </c>
+      <c r="Z30" s="61">
+        <f t="shared" si="6"/>
+        <v>0.117327277731902</v>
+      </c>
+      <c r="AA30" s="61">
+        <f t="shared" si="6"/>
+        <v>0.12060641667518136</v>
+      </c>
+      <c r="AB30" s="61">
+        <f t="shared" si="6"/>
+        <v>0.12312943679042272</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5501,8 +5906,23 @@
       <c r="W31" s="12">
         <v>10.87</v>
       </c>
+      <c r="X31" s="62">
+        <v>11.73</v>
+      </c>
+      <c r="Y31" s="62">
+        <v>12.61</v>
+      </c>
+      <c r="Z31" s="62">
+        <v>13.51</v>
+      </c>
+      <c r="AA31" s="62">
+        <v>14.97</v>
+      </c>
+      <c r="AB31" s="62">
+        <v>15.78</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5717,7 +6137,7 @@
     </row>
     <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -5725,83 +6145,83 @@
         <v>1.5499727231686843E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:W35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:W35" si="7">(D34-C34)/C34</f>
         <v>-2.6406745512910328E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.0785744297686692E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.2179796546664365E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.9446487214375296E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.5675623599825686E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.5887636862737911E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.4988705897969182E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.4607983370007802E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.1151129455507576E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.1245508563139837E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.8794778067609076E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.858402076460648E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.9689620978707252E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.6186639499755046E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0942456237577296E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.8234136114893795E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.7694291352085618E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.7032481606762736E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.9144330573570129E-3</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.7527760108365229E-3</v>
       </c>
     </row>
@@ -5810,70 +6230,70 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="21" x14ac:dyDescent="0.25">
@@ -5881,70 +6301,70 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -6023,13 +6443,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>285288000</v>
@@ -6236,70 +6656,70 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -6520,19 +6940,19 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1">
         <v>214482000</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1">
         <v>527648000</v>
@@ -6591,7 +7011,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>167603000</v>
@@ -6600,34 +7020,34 @@
         <v>188659000</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1">
         <v>378488000</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1">
         <v>397880000</v>
@@ -6654,7 +7074,7 @@
         <v>1710938000</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -6662,7 +7082,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>167603000</v>
@@ -6733,28 +7153,28 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1">
         <v>340121000</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1">
         <v>29011000</v>
@@ -7017,70 +7437,70 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7266,7 +7686,7 @@
         <v>11000</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1">
         <v>330000</v>
@@ -7301,28 +7721,28 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1">
         <v>795948000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1">
         <v>492559000</v>
@@ -7615,7 +8035,7 @@
         <v>1445000</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1">
         <v>22000</v>
@@ -7656,28 +8076,28 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1">
         <v>536065000</v>
@@ -7940,70 +8360,70 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8358,7 +8778,7 @@
         <v>6960131000</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8508,70 +8928,70 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="21" x14ac:dyDescent="0.25">
@@ -8579,70 +8999,70 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8863,28 +9283,28 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1">
         <v>60486000</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1">
         <v>452823000</v>
@@ -8931,94 +9351,94 @@
     </row>
     <row r="80" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:W80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:W80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0020955985152961E-3</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9542688074145196E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8438579795218499E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6456637855842341E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8069926490996622E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.026295403889251E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.106063628313359E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0669631040786254E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.178813110455901E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.162993773669963E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3481430424435217E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5297990770013188E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7022016968018099E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6575518218261592E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7271823263530615E-2</v>
       </c>
     </row>
@@ -9098,28 +9518,28 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1">
         <v>-182998000</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1">
         <v>982062000</v>
@@ -9155,13 +9575,13 @@
         <v>-526297000</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="21" x14ac:dyDescent="0.25">
@@ -9169,103 +9589,103 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE83" s="62"/>
+        <v>91</v>
+      </c>
+      <c r="AD83" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE83" s="31"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1">
         <v>-65486000</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1">
         <v>-306166000</v>
@@ -9309,29 +9729,29 @@
       <c r="W84" s="1">
         <v>374349000</v>
       </c>
-      <c r="AD84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE84" s="64"/>
+      <c r="AD84" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE84" s="32"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>-151132000</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1">
         <v>-32996000</v>
@@ -9384,10 +9804,10 @@
       <c r="W85" s="1">
         <v>648506000</v>
       </c>
-      <c r="AD85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE85" s="24">
+      <c r="AD85" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE85" s="34">
         <f>W17</f>
         <v>47320000</v>
       </c>
@@ -9462,10 +9882,10 @@
       <c r="W86" s="1">
         <v>1020400000</v>
       </c>
-      <c r="AD86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE86" s="24">
+      <c r="AD86" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE86" s="34">
         <f>W56</f>
         <v>716773000</v>
       </c>
@@ -9540,10 +9960,10 @@
       <c r="W87" s="10">
         <v>9541129000</v>
       </c>
-      <c r="AD87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE87" s="24">
+      <c r="AD87" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE87" s="34">
         <f>W61</f>
         <v>2608983000</v>
       </c>
@@ -9618,110 +10038,110 @@
       <c r="W88" s="1">
         <v>-717998000</v>
       </c>
-      <c r="AD88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE88" s="34">
+      <c r="AD88" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE88" s="36">
         <f>AE85/(AE86+AE87)</f>
         <v>1.4228343871288213E-2</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:W89" si="9">(-1*B88)/B3</f>
+        <v>2.8933831230316755E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.0055743507222879E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.5791685451630337E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.8657787412672919E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.8589223851993807E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6796568600827962E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6984817841743063E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2655850601169496E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0506898114916908E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0314982048644679E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4759451223368742E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2491577250777713E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2159950464371839E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0097984362383206E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2001334126339261E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4270097061983563E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.403270209080377E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4883076461872325E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.3861132009841117E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.3516174631019229E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1480172050206251E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1656889382873953E-2</v>
+      </c>
+      <c r="AD89" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:W89" si="7">(-1*B88)/B3</f>
-        <v>2.8933831230316755E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.0055743507222879E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.5791685451630337E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.8657787412672919E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.8589223851993807E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.6796568600827962E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.6984817841743063E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2655850601169496E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0506898114916908E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0314982048644679E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.4759451223368742E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2491577250777713E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2159950464371839E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0097984362383206E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2001334126339261E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.4270097061983563E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.403270209080377E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.4883076461872325E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.3861132009841117E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.3516174631019229E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1480172050206251E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1656889382873953E-2</v>
-      </c>
-      <c r="AD89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE89" s="24">
+      <c r="AE89" s="34">
         <f>W27</f>
         <v>2207207000</v>
       </c>
@@ -9731,7 +10151,7 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1">
         <v>-69743000</v>
@@ -9796,10 +10216,10 @@
       <c r="W90" s="1">
         <v>-3555211000</v>
       </c>
-      <c r="AD90" s="23" t="s">
+      <c r="AD90" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AE90" s="24">
+      <c r="AE90" s="34">
         <f>W25</f>
         <v>9196167000</v>
       </c>
@@ -9812,10 +10232,10 @@
         <v>-326086000</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-1014998000</v>
@@ -9845,39 +10265,39 @@
         <v>-7554000</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE91" s="34">
+        <v>91</v>
+      </c>
+      <c r="AD91" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE91" s="36">
         <f>AE89/AE90</f>
         <v>0.24001380140225814</v>
       </c>
@@ -9923,37 +10343,37 @@
         <v>12549000</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1">
         <v>10553000</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD92" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE92" s="36">
         <f>AE88*(1-AE91)</f>
@@ -10030,10 +10450,10 @@
       <c r="W93" s="1">
         <v>12580000</v>
       </c>
-      <c r="AD93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE93" s="64"/>
+      <c r="AD93" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE93" s="32"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10105,11 +10525,12 @@
       <c r="W94" s="10">
         <v>-4260629000</v>
       </c>
-      <c r="AD94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE94" s="37">
-        <v>4.095E-2</v>
+      <c r="AD94" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE94" s="65">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10117,37 +10538,37 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1">
         <v>-119549000</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1">
         <v>-58939000</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1">
         <v>-6399000</v>
@@ -10156,38 +10577,38 @@
         <v>-34000</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE95" s="55" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AD95" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE95" s="38" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.2258</v>
+        <v>1.2262999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10260,8 +10681,8 @@
       <c r="W96" s="1">
         <v>1349064000</v>
       </c>
-      <c r="AD96" s="23" t="s">
-        <v>137</v>
+      <c r="AD96" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="AE96" s="37">
         <v>8.4000000000000005E-2</v>
@@ -10272,7 +10693,7 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1">
         <v>-560718000</v>
@@ -10338,11 +10759,11 @@
         <v>-4116378000</v>
       </c>
       <c r="AD97" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.3720690000000009E-2</v>
+        <v>9.4156344000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10350,19 +10771,19 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1">
         <v>-267973000</v>
@@ -10415,10 +10836,10 @@
       <c r="W98" s="1">
         <v>-2457306000</v>
       </c>
-      <c r="AD98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE98" s="64"/>
+      <c r="AD98" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE98" s="32"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10490,10 +10911,10 @@
       <c r="W99" s="1">
         <v>-86406000</v>
       </c>
-      <c r="AD99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE99" s="24">
+      <c r="AD99" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE99" s="34">
         <f>AE86+AE87</f>
         <v>3325756000</v>
       </c>
@@ -10568,12 +10989,12 @@
       <c r="W100" s="10">
         <v>-5311026000</v>
       </c>
-      <c r="AD100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE100" s="34">
+      <c r="AD100" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE100" s="36">
         <f>AE99/AE103</f>
-        <v>1.6850869815433708E-2</v>
+        <v>1.5971343608165919E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10646,12 +11067,12 @@
       <c r="W101" s="1">
         <v>-247815000</v>
       </c>
-      <c r="AD101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE101" s="49" cm="1">
+      <c r="AD101" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE101" s="39" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>194038299175</v>
+        <v>204906943865</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10724,12 +11145,12 @@
       <c r="W102" s="10">
         <v>-278341000</v>
       </c>
-      <c r="AD102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE102" s="34">
+      <c r="AD102" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE102" s="36">
         <f>AE101/AE103</f>
-        <v>0.98314913018456629</v>
+        <v>0.98402865639183412</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10803,11 +11224,11 @@
         <v>8168174000</v>
       </c>
       <c r="AD103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE103" s="38">
+        <v>143</v>
+      </c>
+      <c r="AE103" s="40">
         <f>AE99+AE101</f>
-        <v>197364055175</v>
+        <v>208232699865</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10880,370 +11301,450 @@
       <c r="W104" s="11">
         <v>7889833000</v>
       </c>
-      <c r="AD104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE104" s="64"/>
+      <c r="AD104" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE104" s="32"/>
     </row>
     <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:V105" si="10">(B22*(1-$AE$91))+B77+B88+B81</f>
+        <v>1518293957.5915704</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>1012963638.8334401</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>1324701190.7817681</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>1507404488.4951525</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>1618995741.9550993</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>2298407430.8041601</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>2226774038.362505</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>2274825755.9453845</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>2265854910.9556189</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>2478494971.0516348</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>2785895422.8269234</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>3732901047.2086902</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>2632233920.1320505</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>2572442766.9039721</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>3811186218.7875667</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>3463230809.1135139</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>3362521903.4996862</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>4553503545.443553</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>5064101221.1374588</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>6256096542.57899</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>6053720852.2124491</v>
+      </c>
+      <c r="W105" s="1">
+        <f>(W22*(1-$AE$91))+W77+W88+W81</f>
+        <v>6466204279.7669945</v>
+      </c>
+      <c r="X105" s="29">
+        <f>W105*(1+$AE$106)</f>
+        <v>6828754176.4514408</v>
+      </c>
+      <c r="Y105" s="29">
+        <f t="shared" ref="Y105:AB105" si="11">X105*(1+$AE$106)</f>
+        <v>7211631675.2187948</v>
+      </c>
+      <c r="Z105" s="29">
+        <f t="shared" si="11"/>
+        <v>7615976512.7238464</v>
+      </c>
+      <c r="AA105" s="29">
+        <f t="shared" si="11"/>
+        <v>8042992328.861764</v>
+      </c>
+      <c r="AB105" s="29">
+        <f t="shared" si="11"/>
+        <v>8493950249.7222071</v>
+      </c>
+      <c r="AC105" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD105" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.57925173071303493</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.62580897406910996</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.13247353333696998</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>6.4686834065712739E-2</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.50500315744063151</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:W105" si="8">(H106/G106)-1</f>
-        <v>-4.0486236220872551E-2</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>9.561670360083907E-2</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.17474344309833745</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.1716659004020533E-2</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>6.4701645928285645E-2</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.27875116235054032</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.24488362311506306</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>7.8635502900084697E-2</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.16841617905230843</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.1031692236118924</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>9.2820020061056052E-2</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.2132282729655024</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.11473685456358429</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.26345234793156669</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.10228387005286232</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>5.0996329250593497E-2</v>
-      </c>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE105" s="26">
+      <c r="AE105" s="42">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>9.2323629122174455E-2</v>
+        <v>9.2825244325174111E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>1902684000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>800551000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>1301543000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>1473963000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>1569309000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>2361815000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>2266194000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>2482880000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>2916747000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>2853405000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>3038025000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>3884878000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>2933535000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>3164215000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>3697120000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>4078549000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>4457120000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>5407504000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>6027944000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>7616020000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>8395016000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>8823131000</v>
-      </c>
-      <c r="X106" s="56">
-        <f>W106*(1+$AE$106)</f>
-        <v>9348164161.4508705</v>
-      </c>
-      <c r="Y106" s="56">
-        <f t="shared" ref="Y106:AB106" si="9">X106*(1+$AE$106)</f>
-        <v>9904440179.9581642</v>
-      </c>
-      <c r="Z106" s="56">
-        <f t="shared" si="9"/>
-        <v>10493818206.883579</v>
-      </c>
-      <c r="AA106" s="56">
-        <f t="shared" si="9"/>
-        <v>11118268025.077459</v>
-      </c>
-      <c r="AB106" s="56">
-        <f t="shared" si="9"/>
-        <v>11779876632.165413</v>
-      </c>
-      <c r="AC106" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD106" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE106" s="41">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>-0.57925173071303493</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>0.62580897406910996</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>0.13247353333696998</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>6.4686834065712739E-2</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>0.50500315744063151</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-4.0486236220872551E-2</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>9.561670360083907E-2</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>0.17474344309833745</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-2.1716659004020533E-2</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>6.4701645928285645E-2</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>0.27875116235054032</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-0.24488362311506306</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>7.8635502900084697E-2</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>0.16841617905230843</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>0.1031692236118924</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>9.2820020061056052E-2</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>0.2132282729655024</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>0.11473685456358429</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>0.26345234793156669</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>0.10228387005286232</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>5.0996329250593497E-2</v>
+      </c>
+      <c r="X106" s="64">
+        <v>9229000000</v>
+      </c>
+      <c r="Y106" s="64">
+        <v>9760000000</v>
+      </c>
+      <c r="Z106" s="64">
+        <v>10756000000</v>
+      </c>
+      <c r="AA106" s="64">
+        <v>10212000000</v>
+      </c>
+      <c r="AB106" s="64">
+        <v>10773000000</v>
+      </c>
+      <c r="AC106" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD106" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE106" s="44">
         <f>(SUM(X4:AB4)/5)</f>
-        <v>5.950644521212136E-2</v>
+        <v>5.6068426080951285E-2</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="39"/>
-      <c r="Y107" s="39"/>
-      <c r="Z107" s="39"/>
-      <c r="AA107" s="39"/>
-      <c r="AB107" s="42">
+      <c r="A107" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1902684000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>800551000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1301543000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1473963000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1569309000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2361815000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>2266194000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>2482880000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>2916747000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>2853405000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>3038025000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>3884878000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>2933535000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>3164215000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>3697120000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>4078549000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>4457120000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>5407504000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>6027944000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>7616020000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>8395016000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>8823131000</v>
+      </c>
+      <c r="X107" s="27"/>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="68">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>179348227441.18228</v>
-      </c>
-      <c r="AC107" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD107" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE107" s="45">
+        <v>162805532215.4072</v>
+      </c>
+      <c r="AC107" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD107" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE107" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="42">
-        <f t="shared" ref="X108:Z108" si="10">X107+X106</f>
-        <v>9348164161.4508705</v>
-      </c>
-      <c r="Y108" s="42">
-        <f t="shared" si="10"/>
-        <v>9904440179.9581642</v>
-      </c>
-      <c r="Z108" s="42">
-        <f t="shared" si="10"/>
-        <v>10493818206.883579</v>
-      </c>
-      <c r="AA108" s="42">
+      <c r="X108" s="68">
+        <f t="shared" ref="X108:Z108" si="12">X107+X106</f>
+        <v>9229000000</v>
+      </c>
+      <c r="Y108" s="68">
+        <f t="shared" si="12"/>
+        <v>9760000000</v>
+      </c>
+      <c r="Z108" s="68">
+        <f t="shared" si="12"/>
+        <v>10756000000</v>
+      </c>
+      <c r="AA108" s="68">
         <f>AA107+AA106</f>
-        <v>11118268025.077459</v>
-      </c>
-      <c r="AB108" s="42">
+        <v>10212000000</v>
+      </c>
+      <c r="AB108" s="68">
         <f>AB107+AB106</f>
-        <v>191128104073.34769</v>
-      </c>
-      <c r="AC108" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD108" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE108" s="47">
+        <v>173578532215.4072</v>
+      </c>
+      <c r="AC108" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD108" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE108" s="44">
         <f>AE105</f>
-        <v>9.2323629122174455E-2</v>
+        <v>9.2825244325174111E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y109" s="60"/>
+      <c r="X109" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y109" s="48"/>
     </row>
     <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y110" s="49">
+      <c r="X110" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y110" s="39">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>155624734752.42096</v>
+        <v>143382114934.2793</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y111" s="49">
+      <c r="X111" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y111" s="39">
         <f>W40</f>
         <v>7893806000</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y112" s="49">
+      <c r="X112" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y112" s="39">
         <f>AE99</f>
         <v>3325756000</v>
       </c>
     </row>
     <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y113" s="49">
+      <c r="X113" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y113" s="39">
         <f>Y110+Y111-Y112</f>
-        <v>160192784752.42096</v>
+        <v>147950164934.2793</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y114" s="50">
+      <c r="X114" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y114" s="49">
         <f>W34*(1+(5*AC16))</f>
         <v>625506115.32664871</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y115" s="58">
+      <c r="X115" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y115" s="51">
         <f>Y113/Y114</f>
-        <v>256.10106892202947</v>
+        <v>236.5287265928927</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y116" s="57" cm="1">
+      <c r="X116" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y116" s="52" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price",TRUE)</f>
-        <v>307.25</v>
+        <v>308.45</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="52" t="s">
-        <v>158</v>
+      <c r="X117" s="50" t="s">
+        <v>156</v>
       </c>
       <c r="Y117" s="53">
         <f>Y115/Y116-1</f>
-        <v>-0.16647333141731657</v>
+        <v>-0.23316995755262537</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="52" t="s">
-        <v>159</v>
+      <c r="X118" s="50" t="s">
+        <v>157</v>
       </c>
       <c r="Y118" s="54" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
@@ -11306,8 +11807,9 @@
     <hyperlink ref="W36" r:id="rId44" tooltip="https://www.sec.gov/Archives/edgar/data/1467373/000146737322000295/0001467373-22-000295-index.htm" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="W74" r:id="rId45" tooltip="https://www.sec.gov/Archives/edgar/data/1467373/000146737322000295/0001467373-22-000295-index.htm" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="X1" r:id="rId46" display="https://finbox.com/NYSE:ACN/explorer/revenue_proj" xr:uid="{C894F339-02D1-0B4C-8E69-41AF07E4E30E}"/>
+    <hyperlink ref="AC106" r:id="rId47" xr:uid="{5E672611-FAAE-274F-8B2B-086E1E6F28AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId47"/>
+  <drawing r:id="rId48"/>
 </worksheet>
 </file>